--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-798909.5470507413</v>
+        <v>-743803.0896094828</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17369085.08859303</v>
+        <v>16739564.3540454</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9642164.841269456</v>
+        <v>9644595.479955807</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>9.709441041139252</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.85450227885472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.2701778859457</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>66.83474721323314</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>301.4007707108887</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>83.42661545872166</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,22 +1105,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>209.5867542297959</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>287.9202029350731</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>239.0138716342233</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>320.7154653930658</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>63.58529594873641</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015926</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>73.01868583551057</v>
+        <v>118.0900305063584</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946032</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>358.2788628418749</v>
+        <v>146.7201278565692</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>94.50264048967881</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.24836057249189</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>132.2341692497639</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>20.08472694640569</v>
+        <v>98.73120706589823</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,7 +2287,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225726</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277817</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432403</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432373</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245964</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2576.601436412094</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>2213.98448634592</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>2213.169435797357</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3462593216046</v>
+        <v>2213.169435797357</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V4" t="n">
-        <v>1292.062614956869</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.062614956869</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1292.062614956869</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1292.062614956869</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.1040799405455</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C5" t="n">
-        <v>854.0020111643728</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D5" t="n">
-        <v>822.1326303792214</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>792.3982895779207</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449918</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850493</v>
+        <v>1290.178378232929</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>226.3304742981165</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>226.3304742981165</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1304.820447932477</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1304.820447932477</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1304.820447932477</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.820447932477</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1304.820447932477</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>828.5964649868368</v>
+        <v>1671.959615828829</v>
       </c>
       <c r="C8" t="n">
-        <v>390.4539921702602</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D8" t="n">
-        <v>99.62550435705506</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>69.8911635557543</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>46.0641380053661</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>46.0641380053661</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>481.318825458284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1017.510341740248</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1017.510341740248</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1017.510341740248</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1017.510341740248</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1017.510341740248</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1587.554049556653</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2134.052835515248</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.206900268305</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2083.139673141343</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2083.139673141343</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>2083.139673141343</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>2082.324622592781</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1663.182159172091</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.896035471745</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.2358829966589</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.7794218333012</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.6891329798544</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.5687183068081</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>173.1848799229697</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.79979018915363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>72.12781116582369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.686136132036</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>396.686136132036</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>396.686136132036</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>396.686136132036</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>396.686136132036</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>481.3484749413544</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1592.131121389835</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.303899484175</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.848461932558</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.66981826316</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.333271263128</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1140.215753325127</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.8929990583213</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>800.0255632972013</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.5397840764221</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1125.122298617247</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>952.5605871004724</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>786.6825943019951</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>616.9245905527324</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>440.2175365144886</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>274.6262615403162</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.7240872306908</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>46.0641380053661</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>216.0782049656627</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>634.2880867336238</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1093.771953914537</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1536.030757072181</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1955.700006297963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2303.206900268305</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2303.206900268305</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2303.206900268305</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2303.206900268305</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2303.206900268305</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.778747102423</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1789.752342688714</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.360588022126</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1316.940917336235</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2517.03199502539</v>
+        <v>2002.792610259175</v>
       </c>
       <c r="C11" t="n">
-        <v>2078.889522208814</v>
+        <v>1678.837594710624</v>
       </c>
       <c r="D11" t="n">
-        <v>1642.979737383258</v>
+        <v>1242.927809885068</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.204992541553</v>
+        <v>809.1530650433633</v>
       </c>
       <c r="F11" t="n">
-        <v>781.3375629507607</v>
+        <v>381.2856354525711</v>
       </c>
       <c r="G11" t="n">
-        <v>379.9397315740246</v>
+        <v>381.2856354525711</v>
       </c>
       <c r="H11" t="n">
-        <v>90.80957701724088</v>
+        <v>92.15548089578732</v>
       </c>
       <c r="I11" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0802652887099</v>
+        <v>526.9933789758452</v>
       </c>
       <c r="K11" t="n">
-        <v>1110.430557246888</v>
+        <v>1361.343670934023</v>
       </c>
       <c r="L11" t="n">
-        <v>2185.490523499747</v>
+        <v>1361.343670934023</v>
       </c>
       <c r="M11" t="n">
-        <v>2185.490523499747</v>
+        <v>1361.343670934023</v>
       </c>
       <c r="N11" t="n">
-        <v>2185.490523499747</v>
+        <v>2062.792184031013</v>
       </c>
       <c r="O11" t="n">
-        <v>3165.670190070054</v>
+        <v>3042.971850601319</v>
       </c>
       <c r="P11" t="n">
-        <v>3993.98006490345</v>
+        <v>3871.281725434716</v>
       </c>
       <c r="Q11" t="n">
-        <v>4540.478850862044</v>
+        <v>4417.78051139331</v>
       </c>
       <c r="R11" t="n">
-        <v>4540.478850862044</v>
+        <v>4586.934576146366</v>
       </c>
       <c r="S11" t="n">
-        <v>4456.826977045881</v>
+        <v>4503.282702330203</v>
       </c>
       <c r="T11" t="n">
-        <v>4456.826977045881</v>
+        <v>4283.215475203242</v>
       </c>
       <c r="U11" t="n">
-        <v>4197.604674362898</v>
+        <v>4023.993172520259</v>
       </c>
       <c r="V11" t="n">
-        <v>3834.987724296724</v>
+        <v>3661.376222454085</v>
       </c>
       <c r="W11" t="n">
-        <v>3770.760152631334</v>
+        <v>3256.520767865119</v>
       </c>
       <c r="X11" t="n">
-        <v>3351.617689210645</v>
+        <v>2837.378304444429</v>
       </c>
       <c r="Y11" t="n">
-        <v>2943.331565510298</v>
+        <v>2429.092180744083</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.9813220085337</v>
+        <v>597.9104365142201</v>
       </c>
       <c r="C12" t="n">
-        <v>490.524860845176</v>
+        <v>491.4539753508624</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4345719917292</v>
+        <v>396.3636864974156</v>
       </c>
       <c r="E12" t="n">
-        <v>301.3141573186829</v>
+        <v>302.2432718243693</v>
       </c>
       <c r="F12" t="n">
-        <v>217.9303189348445</v>
+        <v>218.8594334405309</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5452292010284</v>
+        <v>133.4743437067148</v>
       </c>
       <c r="H12" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="I12" t="n">
-        <v>116.8732501776985</v>
+        <v>117.8023646833849</v>
       </c>
       <c r="J12" t="n">
-        <v>441.4315751439108</v>
+        <v>442.3606896495972</v>
       </c>
       <c r="K12" t="n">
-        <v>441.4315751439108</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="L12" t="n">
-        <v>441.4315751439108</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="M12" t="n">
-        <v>441.4315751439108</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="N12" t="n">
-        <v>441.4315751439108</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="O12" t="n">
-        <v>441.4315751439108</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.87656040171</v>
+        <v>1637.805674907396</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.04933849605</v>
+        <v>1754.978453001736</v>
       </c>
       <c r="S12" t="n">
-        <v>1690.593900944433</v>
+        <v>1691.523015450119</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.415257275034</v>
+        <v>1561.344371780721</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.078710275003</v>
+        <v>1385.007824780689</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.961192337002</v>
+        <v>1185.890306842688</v>
       </c>
       <c r="W12" t="n">
-        <v>999.6384380701961</v>
+        <v>1000.567552575882</v>
       </c>
       <c r="X12" t="n">
-        <v>844.771002309076</v>
+        <v>845.7001168147625</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.2852230882968</v>
+        <v>719.2143375939833</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.305614094172</v>
+        <v>960.4738976425433</v>
       </c>
       <c r="C13" t="n">
-        <v>768.743902577397</v>
+        <v>787.9121861257682</v>
       </c>
       <c r="D13" t="n">
-        <v>602.8659097789198</v>
+        <v>622.034193327291</v>
       </c>
       <c r="E13" t="n">
-        <v>433.107906029657</v>
+        <v>452.2761895780282</v>
       </c>
       <c r="F13" t="n">
-        <v>256.4008519914132</v>
+        <v>275.5691355397844</v>
       </c>
       <c r="G13" t="n">
-        <v>90.80957701724088</v>
+        <v>231.6408658325528</v>
       </c>
       <c r="H13" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="I13" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="J13" t="n">
-        <v>177.3892621819307</v>
+        <v>178.3183766876172</v>
       </c>
       <c r="K13" t="n">
-        <v>452.1477167530663</v>
+        <v>453.0768312587528</v>
       </c>
       <c r="L13" t="n">
-        <v>870.3575985210274</v>
+        <v>871.2867130267139</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.84146570194</v>
+        <v>1330.770580207627</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.100268859585</v>
+        <v>1773.029383365271</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.769518085366</v>
+        <v>2192.698632591053</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.276412055708</v>
+        <v>2540.205526561395</v>
       </c>
       <c r="Q13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="R13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.230017877356</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.350571455811</v>
+        <v>2462.518855004183</v>
       </c>
       <c r="U13" t="n">
-        <v>2164.917570708917</v>
+        <v>2184.085854257288</v>
       </c>
       <c r="V13" t="n">
-        <v>1877.962062579347</v>
+        <v>1897.130346127718</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.935658165638</v>
+        <v>1625.10394171401</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.543903499051</v>
+        <v>1379.712187047422</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.124232813159</v>
+        <v>1152.29251636153</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.142920993212</v>
+        <v>2523.072035498898</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.000448176635</v>
+        <v>2084.929562682321</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.09066335108</v>
+        <v>1649.019777856766</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.315918509375</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F14" t="n">
-        <v>786.4484889185826</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0506575418464</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H14" t="n">
-        <v>95.92050298506268</v>
+        <v>96.8496174907491</v>
       </c>
       <c r="I14" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="J14" t="n">
-        <v>510.7870950367994</v>
+        <v>531.687515570807</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.137386994977</v>
+        <v>748.1497702829467</v>
       </c>
       <c r="L14" t="n">
-        <v>2420.197353247837</v>
+        <v>1823.209736535806</v>
       </c>
       <c r="M14" t="n">
-        <v>2420.197353247837</v>
+        <v>2980.257571746357</v>
       </c>
       <c r="N14" t="n">
-        <v>2420.197353247837</v>
+        <v>4105.988555182804</v>
       </c>
       <c r="O14" t="n">
-        <v>3400.377019818143</v>
+        <v>4105.988555182804</v>
       </c>
       <c r="P14" t="n">
-        <v>4228.686894651539</v>
+        <v>4105.988555182804</v>
       </c>
       <c r="Q14" t="n">
-        <v>4775.185680610134</v>
+        <v>4652.487341141398</v>
       </c>
       <c r="R14" t="n">
-        <v>4775.185680610134</v>
+        <v>4821.641405894455</v>
       </c>
       <c r="S14" t="n">
-        <v>4691.533806793971</v>
+        <v>4737.989532078292</v>
       </c>
       <c r="T14" t="n">
-        <v>4471.46657966701</v>
+        <v>4517.92230495133</v>
       </c>
       <c r="U14" t="n">
-        <v>4212.244276984026</v>
+        <v>4258.700002268347</v>
       </c>
       <c r="V14" t="n">
-        <v>3849.627326917853</v>
+        <v>3896.083052202173</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.871078599155</v>
+        <v>3776.800193104842</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.728615178466</v>
+        <v>3357.657729684152</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.442491478119</v>
+        <v>2949.371605983806</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.6754586034955</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C15" t="n">
-        <v>495.2189974401377</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D15" t="n">
-        <v>400.128708586691</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E15" t="n">
-        <v>306.0082939136447</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6244555298063</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2393657959902</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H15" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="I15" t="n">
-        <v>121.5673867726603</v>
+        <v>122.4965012783467</v>
       </c>
       <c r="J15" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="K15" t="n">
-        <v>446.1257117388726</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="L15" t="n">
-        <v>446.1257117388726</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="M15" t="n">
-        <v>446.1257117388726</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="N15" t="n">
-        <v>446.1257117388726</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="O15" t="n">
-        <v>446.1257117388726</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X15" t="n">
-        <v>849.4651389040379</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.9793596832586</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.9997506891339</v>
+        <v>946.9288651948202</v>
       </c>
       <c r="C16" t="n">
-        <v>773.4380391723588</v>
+        <v>774.3671536780452</v>
       </c>
       <c r="D16" t="n">
-        <v>607.5600463738815</v>
+        <v>608.4891608795679</v>
       </c>
       <c r="E16" t="n">
-        <v>437.8020426246188</v>
+        <v>438.7311571303052</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0949885863751</v>
+        <v>262.0241030920614</v>
       </c>
       <c r="G16" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="H16" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="I16" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0833987768926</v>
+        <v>183.012513282579</v>
       </c>
       <c r="K16" t="n">
-        <v>456.8418533480281</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L16" t="n">
-        <v>875.0517351159891</v>
+        <v>875.9808496216756</v>
       </c>
       <c r="M16" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O16" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.97054865067</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="S16" t="n">
-        <v>2552.921954812998</v>
+        <v>2553.851069318685</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.044708050773</v>
+        <v>2307.971622897141</v>
       </c>
       <c r="U16" t="n">
-        <v>2169.611707303878</v>
+        <v>2029.538622150246</v>
       </c>
       <c r="V16" t="n">
-        <v>1882.656199174309</v>
+        <v>1742.583114020676</v>
       </c>
       <c r="W16" t="n">
-        <v>1610.6297947606</v>
+        <v>1470.556709606968</v>
       </c>
       <c r="X16" t="n">
-        <v>1365.238040094013</v>
+        <v>1225.16495494038</v>
       </c>
       <c r="Y16" t="n">
-        <v>1137.818369408121</v>
+        <v>1138.747483913807</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2450.266017405926</v>
+        <v>2237.499440007263</v>
       </c>
       <c r="C17" t="n">
-        <v>2012.123544589349</v>
+        <v>1799.356967190687</v>
       </c>
       <c r="D17" t="n">
-        <v>1576.213759763794</v>
+        <v>1363.447182365131</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.315918509375</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F17" t="n">
-        <v>786.4484889185825</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G17" t="n">
-        <v>385.0506575418465</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H17" t="n">
-        <v>95.92050298506268</v>
+        <v>96.8496174907491</v>
       </c>
       <c r="I17" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="J17" t="n">
-        <v>510.7870950367994</v>
+        <v>531.687515570807</v>
       </c>
       <c r="K17" t="n">
-        <v>1345.137386994977</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="L17" t="n">
-        <v>2420.197353247837</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="M17" t="n">
-        <v>2420.197353247837</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="N17" t="n">
-        <v>2420.197353247837</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="O17" t="n">
-        <v>3400.377019818143</v>
+        <v>3421.277440352151</v>
       </c>
       <c r="P17" t="n">
-        <v>4228.686894651539</v>
+        <v>4249.587315185547</v>
       </c>
       <c r="Q17" t="n">
-        <v>4775.185680610134</v>
+        <v>4796.086101144142</v>
       </c>
       <c r="R17" t="n">
-        <v>4775.185680610134</v>
+        <v>4821.641405894455</v>
       </c>
       <c r="S17" t="n">
-        <v>4691.533806793971</v>
+        <v>4737.989532078292</v>
       </c>
       <c r="T17" t="n">
-        <v>4471.46657966701</v>
+        <v>4517.92230495133</v>
       </c>
       <c r="U17" t="n">
-        <v>4471.46657966701</v>
+        <v>4258.700002268347</v>
       </c>
       <c r="V17" t="n">
-        <v>4108.849629600836</v>
+        <v>3896.083052202173</v>
       </c>
       <c r="W17" t="n">
-        <v>3703.99417501187</v>
+        <v>3491.227597613207</v>
       </c>
       <c r="X17" t="n">
-        <v>3284.85171159118</v>
+        <v>3072.085134192518</v>
       </c>
       <c r="Y17" t="n">
-        <v>2876.565587890834</v>
+        <v>2663.799010492171</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.6754586034955</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C18" t="n">
-        <v>495.2189974401377</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D18" t="n">
-        <v>400.128708586691</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0082939136447</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F18" t="n">
-        <v>222.6244555298063</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2393657959902</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H18" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="I18" t="n">
-        <v>121.5673867726603</v>
+        <v>122.4965012783467</v>
       </c>
       <c r="J18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="K18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="L18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="M18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="N18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="O18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X18" t="n">
-        <v>849.4651389040379</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.9793596832586</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.9975510298149</v>
+        <v>965.1680342375048</v>
       </c>
       <c r="C19" t="n">
-        <v>632.4358395130398</v>
+        <v>792.6063227207297</v>
       </c>
       <c r="D19" t="n">
-        <v>466.5578467145625</v>
+        <v>697.1491101048925</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7998429652998</v>
+        <v>527.3911063556299</v>
       </c>
       <c r="F19" t="n">
-        <v>120.092788927056</v>
+        <v>350.6840523173861</v>
       </c>
       <c r="G19" t="n">
-        <v>95.50371361220269</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="H19" t="n">
-        <v>95.50371361220269</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I19" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="J19" t="n">
-        <v>182.0833987768926</v>
+        <v>183.012513282579</v>
       </c>
       <c r="K19" t="n">
-        <v>456.8418533480281</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L19" t="n">
-        <v>875.0517351159891</v>
+        <v>875.9808496216756</v>
       </c>
       <c r="M19" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O19" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.97054865067</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="S19" t="n">
-        <v>2552.921954812999</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.042508391454</v>
+        <v>2467.212991599144</v>
       </c>
       <c r="U19" t="n">
-        <v>2028.609507644559</v>
+        <v>2188.779990852249</v>
       </c>
       <c r="V19" t="n">
-        <v>1741.653999514989</v>
+        <v>1901.82448272268</v>
       </c>
       <c r="W19" t="n">
-        <v>1469.627595101281</v>
+        <v>1629.798078308971</v>
       </c>
       <c r="X19" t="n">
-        <v>1224.235840434694</v>
+        <v>1384.406323642384</v>
       </c>
       <c r="Y19" t="n">
-        <v>996.8161697488019</v>
+        <v>1156.986652956492</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.142920993212</v>
+        <v>2523.072035498898</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.000448176635</v>
+        <v>2084.929562682321</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.09066335108</v>
+        <v>1649.019777856766</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.315918509375</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F20" t="n">
-        <v>786.4484889185825</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G20" t="n">
-        <v>385.0506575418465</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H20" t="n">
-        <v>95.92050298506268</v>
+        <v>96.8496174907491</v>
       </c>
       <c r="I20" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="J20" t="n">
-        <v>510.7870950367994</v>
+        <v>531.687515570807</v>
       </c>
       <c r="K20" t="n">
-        <v>1345.137386994977</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="L20" t="n">
-        <v>2420.197353247837</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="M20" t="n">
-        <v>2420.197353247837</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="N20" t="n">
-        <v>2420.197353247837</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="O20" t="n">
-        <v>3400.377019818143</v>
+        <v>3421.277440352151</v>
       </c>
       <c r="P20" t="n">
-        <v>4228.686894651539</v>
+        <v>4249.587315185547</v>
       </c>
       <c r="Q20" t="n">
-        <v>4775.185680610134</v>
+        <v>4796.086101144142</v>
       </c>
       <c r="R20" t="n">
-        <v>4775.185680610134</v>
+        <v>4821.641405894455</v>
       </c>
       <c r="S20" t="n">
-        <v>4691.533806793971</v>
+        <v>4737.989532078292</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.46657966701</v>
+        <v>4517.92230495133</v>
       </c>
       <c r="U20" t="n">
-        <v>4212.244276984026</v>
+        <v>4258.700002268347</v>
       </c>
       <c r="V20" t="n">
-        <v>3849.627326917853</v>
+        <v>3896.083052202173</v>
       </c>
       <c r="W20" t="n">
-        <v>3444.771872328886</v>
+        <v>3491.227597613207</v>
       </c>
       <c r="X20" t="n">
-        <v>3025.629408908197</v>
+        <v>3357.657729684152</v>
       </c>
       <c r="Y20" t="n">
-        <v>2617.34328520785</v>
+        <v>2949.371605983806</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.6754586034955</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C21" t="n">
-        <v>495.2189974401377</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D21" t="n">
-        <v>400.128708586691</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0082939136447</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F21" t="n">
-        <v>222.6244555298063</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2393657959902</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H21" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="I21" t="n">
-        <v>121.5673867726603</v>
+        <v>122.4965012783467</v>
       </c>
       <c r="J21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="K21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="L21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="M21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="N21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="O21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.054826244559</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X21" t="n">
-        <v>849.4651389040379</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.9793596832586</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1028.971484401774</v>
+        <v>943.7502129428767</v>
       </c>
       <c r="C22" t="n">
-        <v>856.4097728849991</v>
+        <v>771.1885014261017</v>
       </c>
       <c r="D22" t="n">
-        <v>836.1221699088318</v>
+        <v>671.4600094403459</v>
       </c>
       <c r="E22" t="n">
-        <v>666.3641661595691</v>
+        <v>501.7020056910831</v>
       </c>
       <c r="F22" t="n">
-        <v>489.6571121213253</v>
+        <v>324.9949516528392</v>
       </c>
       <c r="G22" t="n">
-        <v>324.065837147153</v>
+        <v>324.9949516528392</v>
       </c>
       <c r="H22" t="n">
-        <v>184.1636628375273</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I22" t="n">
-        <v>95.50371361220269</v>
+        <v>96.4328281178891</v>
       </c>
       <c r="J22" t="n">
-        <v>182.0833987768926</v>
+        <v>183.012513282579</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8418533480281</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L22" t="n">
-        <v>875.0517351159891</v>
+        <v>875.9808496216756</v>
       </c>
       <c r="M22" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O22" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.97054865067</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R22" t="n">
-        <v>2690.745502220374</v>
+        <v>2691.674616726061</v>
       </c>
       <c r="S22" t="n">
-        <v>2531.504133518371</v>
+        <v>2691.674616726061</v>
       </c>
       <c r="T22" t="n">
-        <v>2285.624687096826</v>
+        <v>2445.795170304516</v>
       </c>
       <c r="U22" t="n">
-        <v>2007.191686349931</v>
+        <v>2167.362169557621</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.236178220362</v>
+        <v>1880.406661428052</v>
       </c>
       <c r="W22" t="n">
-        <v>1448.209773806653</v>
+        <v>1608.380257014343</v>
       </c>
       <c r="X22" t="n">
-        <v>1448.209773806653</v>
+        <v>1362.988502347756</v>
       </c>
       <c r="Y22" t="n">
-        <v>1220.790103120761</v>
+        <v>1135.568831661864</v>
       </c>
     </row>
     <row r="23">
@@ -6172,10 +6172,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
         <v>2176.368833962455</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6646,10 +6646,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
         <v>2176.368833962455</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7072,19 +7072,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886293</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030282</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666416</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7108,16 +7108,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197248</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581717</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7187,19 +7187,19 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716792</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,7 +7348,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461496</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7388,25 +7388,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197248</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581717</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,46 +7415,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,13 +7546,13 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
         <v>442.5209799463119</v>
@@ -7561,10 +7561,10 @@
         <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7603,10 +7603,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
         <v>755.2952747835852</v>
@@ -7640,10 +7640,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,25 +7652,25 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387605</v>
@@ -7679,19 +7679,19 @@
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,13 +7828,13 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>541.6075922040036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670762</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>85.51751394880648</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>575.8017250670762</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7313807679764</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1421093651203</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>708.533851613121</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>218.6487421334746</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.81343914173067</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.81343914173067</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.1523322283551</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>176.0821162200498</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>113.0455826953452</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2216040943406</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>327.7882142075665</v>
+        <v>282.7168695367185</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="17">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>71.1581345514129</v>
+        <v>282.7168695367185</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.71657238081372</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>327.7882142075669</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>282.7168695367185</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.1344859240868</v>
+        <v>65.48800580459429</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662726</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.067857162226574e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850564.1754227446</v>
+        <v>830456.097908741</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>850564.1754227446</v>
+        <v>853058.475834278</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852117.9216571192</v>
+        <v>853058.475834278</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772468.5437578248</v>
+        <v>778210.6513255219</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801479.2169318696</v>
+        <v>807221.3244995665</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801479.2169318699</v>
+        <v>807221.3244995665</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801479.2169318696</v>
+        <v>807221.3244995666</v>
       </c>
     </row>
     <row r="9">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93825.78098082151</v>
+        <v>91314.40565576185</v>
       </c>
       <c r="C2" t="n">
-        <v>93825.78098082151</v>
+        <v>93825.78098082154</v>
       </c>
       <c r="D2" t="n">
-        <v>93825.78098082151</v>
+        <v>93825.7809808215</v>
       </c>
       <c r="E2" t="n">
-        <v>84461.95135265839</v>
+        <v>85089.79518392334</v>
       </c>
       <c r="F2" t="n">
-        <v>87633.98740012528</v>
+        <v>88261.83123139016</v>
       </c>
       <c r="G2" t="n">
-        <v>87633.98740012529</v>
+        <v>88261.83123139014</v>
       </c>
       <c r="H2" t="n">
-        <v>87633.98740012525</v>
+        <v>88261.83123139017</v>
       </c>
       <c r="I2" t="n">
+        <v>92200.07722403666</v>
+      </c>
+      <c r="J2" t="n">
         <v>92200.07722403668</v>
       </c>
-      <c r="J2" t="n">
-        <v>92200.07722403664</v>
-      </c>
       <c r="K2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="L2" t="n">
         <v>92200.07722403666</v>
@@ -26347,13 +26347,13 @@
         <v>93825.78098082147</v>
       </c>
       <c r="N2" t="n">
-        <v>93825.78098082154</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="O2" t="n">
-        <v>93825.78098082154</v>
+        <v>93825.78098082151</v>
       </c>
       <c r="P2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082147</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47062.26763611586</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>167000.0461160944</v>
+        <v>143084.0826105967</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22460.77347719299</v>
+        <v>19372.38524636004</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38344.77152333065</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152372.8480649385</v>
+        <v>132411.7197519883</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>113939.936939773</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>142180.0375455023</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13049.64047893333</v>
+        <v>13146.6443504247</v>
       </c>
       <c r="F4" t="n">
-        <v>13539.73015058708</v>
+        <v>13636.73402207844</v>
       </c>
       <c r="G4" t="n">
-        <v>13539.73015058708</v>
+        <v>13636.73402207844</v>
       </c>
       <c r="H4" t="n">
-        <v>13539.73015058708</v>
+        <v>13636.73402207844</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26451,13 +26451,13 @@
         <v>19587.56338712591</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066924</v>
+        <v>29443.15222066925</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066924</v>
+        <v>29443.15222066922</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066924</v>
+        <v>29443.15222066925</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68636.34488407822</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69015.27853310306</v>
+        <v>69721.40555742476</v>
       </c>
       <c r="F5" t="n">
-        <v>72582.82234527403</v>
+        <v>73288.94936959571</v>
       </c>
       <c r="G5" t="n">
-        <v>72582.82234527403</v>
+        <v>73288.94936959571</v>
       </c>
       <c r="H5" t="n">
-        <v>72582.82234527403</v>
+        <v>73288.94936959571</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-283090.5476812217</v>
+        <v>-320573.6312201717</v>
       </c>
       <c r="C6" t="n">
-        <v>-140899.2470215118</v>
+        <v>-102517.5968060714</v>
       </c>
       <c r="D6" t="n">
-        <v>-164052.8690848749</v>
+        <v>-102517.5968060714</v>
       </c>
       <c r="E6" t="n">
-        <v>-164603.0137754724</v>
+        <v>-140987.1371316214</v>
       </c>
       <c r="F6" t="n">
-        <v>-15300.96737083615</v>
+        <v>-15555.73943180469</v>
       </c>
       <c r="G6" t="n">
-        <v>1511.434904264184</v>
+        <v>1256.662843295548</v>
       </c>
       <c r="H6" t="n">
-        <v>1511.434904264141</v>
+        <v>1256.662843295577</v>
       </c>
       <c r="I6" t="n">
-        <v>-22224.14042944148</v>
+        <v>-19158.97653799118</v>
       </c>
       <c r="J6" t="n">
-        <v>-110777.8322972387</v>
+        <v>-174437.9400093372</v>
       </c>
       <c r="K6" t="n">
-        <v>236.6330477515148</v>
+        <v>213.4087083688598</v>
       </c>
       <c r="L6" t="n">
-        <v>-38108.13847557915</v>
+        <v>213.4087083688598</v>
       </c>
       <c r="M6" t="n">
-        <v>-157217.7890095036</v>
+        <v>-137256.6606965534</v>
       </c>
       <c r="N6" t="n">
-        <v>-11132.98596593741</v>
+        <v>-11132.98596593749</v>
       </c>
       <c r="O6" t="n">
-        <v>-11132.98596593741</v>
+        <v>-11132.98596593742</v>
       </c>
       <c r="P6" t="n">
-        <v>-11132.98596593745</v>
+        <v>-11132.9859659375</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1135.119712715511</v>
+        <v>1146.733644036592</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.796420152534</v>
+        <v>1205.410351473614</v>
       </c>
       <c r="G4" t="n">
-        <v>1193.796420152534</v>
+        <v>1205.410351473614</v>
       </c>
       <c r="H4" t="n">
-        <v>1193.796420152534</v>
+        <v>1205.410351473614</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>559.3179876484348</v>
+        <v>479.2184374287345</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.46408323221181</v>
+        <v>72.85015191113166</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484348</v>
+        <v>479.2184374287345</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484348</v>
+        <v>479.2184374287345</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>246.920638615014</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>238.8689225664326</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.3487601844884</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.63025464585155</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>356.7540080816512</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>113.5502680755937</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>55.07653710780757</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>33.83389772753338</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>143.6304840422268</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>193.3230123105436</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>45.07208141405056</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874674</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>541.6075922040036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670762</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>85.51751394880648</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>575.8017250670762</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7313807679764</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1421093651203</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>708.533851613121</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>218.6487421334746</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.81343914173067</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.81343914173067</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37467,7 +37467,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.1523322283551</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209001</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
